--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Dag1-Lama4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Dag1-Lama4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.23421792776205</v>
+        <v>11.27642966666667</v>
       </c>
       <c r="H2">
-        <v>9.23421792776205</v>
+        <v>33.829289</v>
       </c>
       <c r="I2">
-        <v>0.05004738136447116</v>
+        <v>0.04495771493187356</v>
       </c>
       <c r="J2">
-        <v>0.05004738136447116</v>
+        <v>0.04495771493187355</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>50.3440946257414</v>
+        <v>63.87463666666667</v>
       </c>
       <c r="N2">
-        <v>50.3440946257414</v>
+        <v>191.62391</v>
       </c>
       <c r="O2">
-        <v>0.3900888579559138</v>
+        <v>0.4433957889597581</v>
       </c>
       <c r="P2">
-        <v>0.3900888579559138</v>
+        <v>0.4433957889597581</v>
       </c>
       <c r="Q2">
-        <v>464.8883411499702</v>
+        <v>720.2778478555543</v>
       </c>
       <c r="R2">
-        <v>464.8883411499702</v>
+        <v>6482.500630699989</v>
       </c>
       <c r="S2">
-        <v>0.01952292584015064</v>
+        <v>0.01993406148204598</v>
       </c>
       <c r="T2">
-        <v>0.01952292584015064</v>
+        <v>0.01993406148204597</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.23421792776205</v>
+        <v>11.27642966666667</v>
       </c>
       <c r="H3">
-        <v>9.23421792776205</v>
+        <v>33.829289</v>
       </c>
       <c r="I3">
-        <v>0.05004738136447116</v>
+        <v>0.04495771493187356</v>
       </c>
       <c r="J3">
-        <v>0.05004738136447116</v>
+        <v>0.04495771493187355</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.653043593498</v>
+        <v>67.80552666666667</v>
       </c>
       <c r="N3">
-        <v>67.653043593498</v>
+        <v>203.41658</v>
       </c>
       <c r="O3">
-        <v>0.524206437891436</v>
+        <v>0.4706826772118143</v>
       </c>
       <c r="P3">
-        <v>0.524206437891436</v>
+        <v>0.4706826772118142</v>
       </c>
       <c r="Q3">
-        <v>624.7229480187467</v>
+        <v>764.6042524679576</v>
       </c>
       <c r="R3">
-        <v>624.7229480187467</v>
+        <v>6881.438272211619</v>
       </c>
       <c r="S3">
-        <v>0.02623515951086366</v>
+        <v>0.02116081762545981</v>
       </c>
       <c r="T3">
-        <v>0.02623515951086366</v>
+        <v>0.0211608176254598</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.23421792776205</v>
+        <v>11.27642966666667</v>
       </c>
       <c r="H4">
-        <v>9.23421792776205</v>
+        <v>33.829289</v>
       </c>
       <c r="I4">
-        <v>0.05004738136447116</v>
+        <v>0.04495771493187356</v>
       </c>
       <c r="J4">
-        <v>0.05004738136447116</v>
+        <v>0.04495771493187355</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.173579347592917</v>
+        <v>0.06932833333333334</v>
       </c>
       <c r="N4">
-        <v>0.173579347592917</v>
+        <v>0.207985</v>
       </c>
       <c r="O4">
-        <v>0.001344971440456338</v>
+        <v>0.0004812534780591592</v>
       </c>
       <c r="P4">
-        <v>0.001344971440456338</v>
+        <v>0.0004812534780591591</v>
       </c>
       <c r="Q4">
-        <v>1.602869523431754</v>
+        <v>0.7817760747405555</v>
       </c>
       <c r="R4">
-        <v>1.602869523431754</v>
+        <v>7.035984672664999</v>
       </c>
       <c r="S4">
-        <v>6.731229860484046E-05</v>
+        <v>2.163605667655635E-05</v>
       </c>
       <c r="T4">
-        <v>6.731229860484046E-05</v>
+        <v>2.163605667655634E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.23421792776205</v>
+        <v>11.27642966666667</v>
       </c>
       <c r="H5">
-        <v>9.23421792776205</v>
+        <v>33.829289</v>
       </c>
       <c r="I5">
-        <v>0.05004738136447116</v>
+        <v>0.04495771493187356</v>
       </c>
       <c r="J5">
-        <v>0.05004738136447116</v>
+        <v>0.04495771493187355</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>10.8872998539859</v>
+        <v>0.06711766666666667</v>
       </c>
       <c r="N5">
-        <v>10.8872998539859</v>
+        <v>0.201353</v>
       </c>
       <c r="O5">
-        <v>0.08435973271219399</v>
+        <v>0.0004659077893484909</v>
       </c>
       <c r="P5">
-        <v>0.08435973271219399</v>
+        <v>0.0004659077893484909</v>
       </c>
       <c r="Q5">
-        <v>100.5356994965977</v>
+        <v>0.7568476475574444</v>
       </c>
       <c r="R5">
-        <v>100.5356994965977</v>
+        <v>6.811628828017</v>
       </c>
       <c r="S5">
-        <v>0.004221983714852026</v>
+        <v>2.094614957806885E-05</v>
       </c>
       <c r="T5">
-        <v>0.004221983714852026</v>
+        <v>2.094614957806885E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.4054767037283</v>
+        <v>11.27642966666667</v>
       </c>
       <c r="H6">
-        <v>28.4054767037283</v>
+        <v>33.829289</v>
       </c>
       <c r="I6">
-        <v>0.1539512860268424</v>
+        <v>0.04495771493187356</v>
       </c>
       <c r="J6">
-        <v>0.1539512860268424</v>
+        <v>0.04495771493187355</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>50.3440946257414</v>
+        <v>0.331405</v>
       </c>
       <c r="N6">
-        <v>50.3440946257414</v>
+        <v>0.9942150000000001</v>
       </c>
       <c r="O6">
-        <v>0.3900888579559138</v>
+        <v>0.002300499683576157</v>
       </c>
       <c r="P6">
-        <v>0.3900888579559138</v>
+        <v>0.002300499683576157</v>
       </c>
       <c r="Q6">
-        <v>1430.04800706179</v>
+        <v>3.737065173681666</v>
       </c>
       <c r="R6">
-        <v>1430.04800706179</v>
+        <v>33.633586563135</v>
       </c>
       <c r="S6">
-        <v>0.0600546813470552</v>
+        <v>0.0001034252089750822</v>
       </c>
       <c r="T6">
-        <v>0.0600546813470552</v>
+        <v>0.0001034252089750822</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.4054767037283</v>
+        <v>11.27642966666667</v>
       </c>
       <c r="H7">
-        <v>28.4054767037283</v>
+        <v>33.829289</v>
       </c>
       <c r="I7">
-        <v>0.1539512860268424</v>
+        <v>0.04495771493187356</v>
       </c>
       <c r="J7">
-        <v>0.1539512860268424</v>
+        <v>0.04495771493187355</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>67.653043593498</v>
+        <v>11.909819</v>
       </c>
       <c r="N7">
-        <v>67.653043593498</v>
+        <v>35.729457</v>
       </c>
       <c r="O7">
-        <v>0.524206437891436</v>
+        <v>0.08267387287744389</v>
       </c>
       <c r="P7">
-        <v>0.524206437891436</v>
+        <v>0.08267387287744389</v>
       </c>
       <c r="Q7">
-        <v>1921.716953731423</v>
+        <v>134.3002362962303</v>
       </c>
       <c r="R7">
-        <v>1921.716953731423</v>
+        <v>1208.702126666073</v>
       </c>
       <c r="S7">
-        <v>0.08070225525693667</v>
+        <v>0.003716828409138076</v>
       </c>
       <c r="T7">
-        <v>0.08070225525693667</v>
+        <v>0.003716828409138075</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.4054767037283</v>
+        <v>28.51725866666667</v>
       </c>
       <c r="H8">
-        <v>28.4054767037283</v>
+        <v>85.551776</v>
       </c>
       <c r="I8">
-        <v>0.1539512860268424</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="J8">
-        <v>0.1539512860268424</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.173579347592917</v>
+        <v>63.87463666666667</v>
       </c>
       <c r="N8">
-        <v>0.173579347592917</v>
+        <v>191.62391</v>
       </c>
       <c r="O8">
-        <v>0.001344971440456338</v>
+        <v>0.4433957889597581</v>
       </c>
       <c r="P8">
-        <v>0.001344971440456338</v>
+        <v>0.4433957889597581</v>
       </c>
       <c r="Q8">
-        <v>4.93060411429896</v>
+        <v>1821.529536062684</v>
       </c>
       <c r="R8">
-        <v>4.93060411429896</v>
+        <v>16393.76582456416</v>
       </c>
       <c r="S8">
-        <v>0.0002070600829276279</v>
+        <v>0.0504117707789314</v>
       </c>
       <c r="T8">
-        <v>0.0002070600829276279</v>
+        <v>0.05041177077893139</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.4054767037283</v>
+        <v>28.51725866666667</v>
       </c>
       <c r="H9">
-        <v>28.4054767037283</v>
+        <v>85.551776</v>
       </c>
       <c r="I9">
-        <v>0.1539512860268424</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="J9">
-        <v>0.1539512860268424</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.8872998539859</v>
+        <v>67.80552666666667</v>
       </c>
       <c r="N9">
-        <v>10.8872998539859</v>
+        <v>203.41658</v>
       </c>
       <c r="O9">
-        <v>0.08435973271219399</v>
+        <v>0.4706826772118143</v>
       </c>
       <c r="P9">
-        <v>0.08435973271219399</v>
+        <v>0.4706826772118142</v>
       </c>
       <c r="Q9">
-        <v>309.258942368901</v>
+        <v>1933.627742982898</v>
       </c>
       <c r="R9">
-        <v>309.258942368901</v>
+        <v>17402.64968684608</v>
       </c>
       <c r="S9">
-        <v>0.01298728933992295</v>
+        <v>0.05351414655715021</v>
       </c>
       <c r="T9">
-        <v>0.01298728933992295</v>
+        <v>0.0535141465571502</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.0140548210841</v>
+        <v>28.51725866666667</v>
       </c>
       <c r="H10">
-        <v>5.0140548210841</v>
+        <v>85.551776</v>
       </c>
       <c r="I10">
-        <v>0.02717504782497348</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="J10">
-        <v>0.02717504782497348</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>50.3440946257414</v>
+        <v>0.06932833333333334</v>
       </c>
       <c r="N10">
-        <v>50.3440946257414</v>
+        <v>0.207985</v>
       </c>
       <c r="O10">
-        <v>0.3900888579559138</v>
+        <v>0.0004812534780591592</v>
       </c>
       <c r="P10">
-        <v>0.3900888579559138</v>
+        <v>0.0004812534780591591</v>
       </c>
       <c r="Q10">
-        <v>252.4280503713128</v>
+        <v>1.977054014595556</v>
       </c>
       <c r="R10">
-        <v>252.4280503713128</v>
+        <v>17.79348613136</v>
       </c>
       <c r="S10">
-        <v>0.01060068337094124</v>
+        <v>5.471599105485348E-05</v>
       </c>
       <c r="T10">
-        <v>0.01060068337094124</v>
+        <v>5.471599105485347E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.0140548210841</v>
+        <v>28.51725866666667</v>
       </c>
       <c r="H11">
-        <v>5.0140548210841</v>
+        <v>85.551776</v>
       </c>
       <c r="I11">
-        <v>0.02717504782497348</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="J11">
-        <v>0.02717504782497348</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>67.653043593498</v>
+        <v>0.06711766666666667</v>
       </c>
       <c r="N11">
-        <v>67.653043593498</v>
+        <v>0.201353</v>
       </c>
       <c r="O11">
-        <v>0.524206437891436</v>
+        <v>0.0004659077893484909</v>
       </c>
       <c r="P11">
-        <v>0.524206437891436</v>
+        <v>0.0004659077893484909</v>
       </c>
       <c r="Q11">
-        <v>339.2160693909914</v>
+        <v>1.914011861436445</v>
       </c>
       <c r="R11">
-        <v>339.2160693909914</v>
+        <v>17.226106752928</v>
       </c>
       <c r="S11">
-        <v>0.01424533501985876</v>
+        <v>5.297126690322818E-05</v>
       </c>
       <c r="T11">
-        <v>0.01424533501985876</v>
+        <v>5.297126690322817E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.0140548210841</v>
+        <v>28.51725866666667</v>
       </c>
       <c r="H12">
-        <v>5.0140548210841</v>
+        <v>85.551776</v>
       </c>
       <c r="I12">
-        <v>0.02717504782497348</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="J12">
-        <v>0.02717504782497348</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.173579347592917</v>
+        <v>0.331405</v>
       </c>
       <c r="N12">
-        <v>0.173579347592917</v>
+        <v>0.9942150000000001</v>
       </c>
       <c r="O12">
-        <v>0.001344971440456338</v>
+        <v>0.002300499683576157</v>
       </c>
       <c r="P12">
-        <v>0.001344971440456338</v>
+        <v>0.002300499683576157</v>
       </c>
       <c r="Q12">
-        <v>0.8703363646388982</v>
+        <v>9.450762108426666</v>
       </c>
       <c r="R12">
-        <v>0.8703363646388982</v>
+        <v>85.05685897584002</v>
       </c>
       <c r="S12">
-        <v>3.654966321762445E-05</v>
+        <v>0.0002615547229204084</v>
       </c>
       <c r="T12">
-        <v>3.654966321762445E-05</v>
+        <v>0.0002615547229204084</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.0140548210841</v>
+        <v>28.51725866666667</v>
       </c>
       <c r="H13">
-        <v>5.0140548210841</v>
+        <v>85.551776</v>
       </c>
       <c r="I13">
-        <v>0.02717504782497348</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="J13">
-        <v>0.02717504782497348</v>
+        <v>0.1136947441408982</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.8872998539859</v>
+        <v>11.909819</v>
       </c>
       <c r="N13">
-        <v>10.8872998539859</v>
+        <v>35.729457</v>
       </c>
       <c r="O13">
-        <v>0.08435973271219399</v>
+        <v>0.08267387287744389</v>
       </c>
       <c r="P13">
-        <v>0.08435973271219399</v>
+        <v>0.08267387287744389</v>
       </c>
       <c r="Q13">
-        <v>54.58951832146622</v>
+        <v>339.6353890961813</v>
       </c>
       <c r="R13">
-        <v>54.58951832146622</v>
+        <v>3056.718501865632</v>
       </c>
       <c r="S13">
-        <v>0.002292479770955851</v>
+        <v>0.009399584823938127</v>
       </c>
       <c r="T13">
-        <v>0.002292479770955851</v>
+        <v>0.009399584823938127</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.46980526279698</v>
+        <v>5.329513</v>
       </c>
       <c r="H14">
-        <v>5.46980526279698</v>
+        <v>15.988539</v>
       </c>
       <c r="I14">
-        <v>0.02964511257131833</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="J14">
-        <v>0.02964511257131833</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>50.3440946257414</v>
+        <v>63.87463666666667</v>
       </c>
       <c r="N14">
-        <v>50.3440946257414</v>
+        <v>191.62391</v>
       </c>
       <c r="O14">
-        <v>0.3900888579559138</v>
+        <v>0.4433957889597581</v>
       </c>
       <c r="P14">
-        <v>0.3900888579559138</v>
+        <v>0.4433957889597581</v>
       </c>
       <c r="Q14">
-        <v>275.3723937346294</v>
+        <v>340.4207064852766</v>
       </c>
       <c r="R14">
-        <v>275.3723937346294</v>
+        <v>3063.78635836749</v>
       </c>
       <c r="S14">
-        <v>0.01156422810692007</v>
+        <v>0.009421318888318637</v>
       </c>
       <c r="T14">
-        <v>0.01156422810692007</v>
+        <v>0.009421318888318635</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.46980526279698</v>
+        <v>5.329513</v>
       </c>
       <c r="H15">
-        <v>5.46980526279698</v>
+        <v>15.988539</v>
       </c>
       <c r="I15">
-        <v>0.02964511257131833</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="J15">
-        <v>0.02964511257131833</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>67.653043593498</v>
+        <v>67.80552666666667</v>
       </c>
       <c r="N15">
-        <v>67.653043593498</v>
+        <v>203.41658</v>
       </c>
       <c r="O15">
-        <v>0.524206437891436</v>
+        <v>0.4706826772118143</v>
       </c>
       <c r="P15">
-        <v>0.524206437891436</v>
+        <v>0.4706826772118142</v>
       </c>
       <c r="Q15">
-        <v>370.0489738919488</v>
+        <v>361.3704358418466</v>
       </c>
       <c r="R15">
-        <v>370.0489738919488</v>
+        <v>3252.333922576619</v>
       </c>
       <c r="S15">
-        <v>0.01554015886190141</v>
+        <v>0.01000111346935348</v>
       </c>
       <c r="T15">
-        <v>0.01554015886190141</v>
+        <v>0.01000111346935348</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.46980526279698</v>
+        <v>5.329513</v>
       </c>
       <c r="H16">
-        <v>5.46980526279698</v>
+        <v>15.988539</v>
       </c>
       <c r="I16">
-        <v>0.02964511257131833</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="J16">
-        <v>0.02964511257131833</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.173579347592917</v>
+        <v>0.06932833333333334</v>
       </c>
       <c r="N16">
-        <v>0.173579347592917</v>
+        <v>0.207985</v>
       </c>
       <c r="O16">
-        <v>0.001344971440456338</v>
+        <v>0.0004812534780591592</v>
       </c>
       <c r="P16">
-        <v>0.001344971440456338</v>
+        <v>0.0004812534780591591</v>
       </c>
       <c r="Q16">
-        <v>0.9494452289766036</v>
+        <v>0.3694862537683333</v>
       </c>
       <c r="R16">
-        <v>0.9494452289766036</v>
+        <v>3.325376283915</v>
       </c>
       <c r="S16">
-        <v>3.987182975753631E-05</v>
+        <v>1.022572292250456E-05</v>
       </c>
       <c r="T16">
-        <v>3.987182975753631E-05</v>
+        <v>1.022572292250456E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.46980526279698</v>
+        <v>5.329513</v>
       </c>
       <c r="H17">
-        <v>5.46980526279698</v>
+        <v>15.988539</v>
       </c>
       <c r="I17">
-        <v>0.02964511257131833</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="J17">
-        <v>0.02964511257131833</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>10.8872998539859</v>
+        <v>0.06711766666666667</v>
       </c>
       <c r="N17">
-        <v>10.8872998539859</v>
+        <v>0.201353</v>
       </c>
       <c r="O17">
-        <v>0.08435973271219399</v>
+        <v>0.0004659077893484909</v>
       </c>
       <c r="P17">
-        <v>0.08435973271219399</v>
+        <v>0.0004659077893484909</v>
       </c>
       <c r="Q17">
-        <v>59.55141003898086</v>
+        <v>0.3577044770296667</v>
       </c>
       <c r="R17">
-        <v>59.55141003898086</v>
+        <v>3.219340293267</v>
       </c>
       <c r="S17">
-        <v>0.002500853772739316</v>
+        <v>9.899656165661282E-06</v>
       </c>
       <c r="T17">
-        <v>0.002500853772739316</v>
+        <v>9.899656165661282E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.32614568004099</v>
+        <v>5.329513</v>
       </c>
       <c r="H18">
-        <v>3.32614568004099</v>
+        <v>15.988539</v>
       </c>
       <c r="I18">
-        <v>0.01802696044484009</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="J18">
-        <v>0.01802696044484009</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>50.3440946257414</v>
+        <v>0.331405</v>
       </c>
       <c r="N18">
-        <v>50.3440946257414</v>
+        <v>0.9942150000000001</v>
       </c>
       <c r="O18">
-        <v>0.3900888579559138</v>
+        <v>0.002300499683576157</v>
       </c>
       <c r="P18">
-        <v>0.3900888579559138</v>
+        <v>0.002300499683576157</v>
       </c>
       <c r="Q18">
-        <v>167.4517928549846</v>
+        <v>1.766227255765</v>
       </c>
       <c r="R18">
-        <v>167.4517928549846</v>
+        <v>15.896045301885</v>
       </c>
       <c r="S18">
-        <v>0.007032116412344104</v>
+        <v>4.888125160659603E-05</v>
       </c>
       <c r="T18">
-        <v>0.007032116412344104</v>
+        <v>4.888125160659603E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.32614568004099</v>
+        <v>5.329513</v>
       </c>
       <c r="H19">
-        <v>3.32614568004099</v>
+        <v>15.988539</v>
       </c>
       <c r="I19">
-        <v>0.01802696044484009</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="J19">
-        <v>0.01802696044484009</v>
+        <v>0.02124810186046602</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>67.653043593498</v>
+        <v>11.909819</v>
       </c>
       <c r="N19">
-        <v>67.653043593498</v>
+        <v>35.729457</v>
       </c>
       <c r="O19">
-        <v>0.524206437891436</v>
+        <v>0.08267387287744389</v>
       </c>
       <c r="P19">
-        <v>0.524206437891436</v>
+        <v>0.08267387287744389</v>
       </c>
       <c r="Q19">
-        <v>225.0238786901381</v>
+        <v>63.47353518814699</v>
       </c>
       <c r="R19">
-        <v>225.0238786901381</v>
+        <v>571.2618166933229</v>
       </c>
       <c r="S19">
-        <v>0.009449848720799441</v>
+        <v>0.001756662872099147</v>
       </c>
       <c r="T19">
-        <v>0.009449848720799441</v>
+        <v>0.001756662872099147</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.32614568004099</v>
+        <v>5.710511999999999</v>
       </c>
       <c r="H20">
-        <v>3.32614568004099</v>
+        <v>17.131536</v>
       </c>
       <c r="I20">
-        <v>0.01802696044484009</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="J20">
-        <v>0.01802696044484009</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.173579347592917</v>
+        <v>63.87463666666667</v>
       </c>
       <c r="N20">
-        <v>0.173579347592917</v>
+        <v>191.62391</v>
       </c>
       <c r="O20">
-        <v>0.001344971440456338</v>
+        <v>0.4433957889597581</v>
       </c>
       <c r="P20">
-        <v>0.001344971440456338</v>
+        <v>0.4433957889597581</v>
       </c>
       <c r="Q20">
-        <v>0.5773501971405143</v>
+        <v>364.7568791806399</v>
       </c>
       <c r="R20">
-        <v>0.5773501971405143</v>
+        <v>3282.811912625759</v>
       </c>
       <c r="S20">
-        <v>2.4245746956546E-05</v>
+        <v>0.01009483503794253</v>
       </c>
       <c r="T20">
-        <v>2.4245746956546E-05</v>
+        <v>0.01009483503794253</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.32614568004099</v>
+        <v>5.710511999999999</v>
       </c>
       <c r="H21">
-        <v>3.32614568004099</v>
+        <v>17.131536</v>
       </c>
       <c r="I21">
-        <v>0.01802696044484009</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="J21">
-        <v>0.01802696044484009</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.8872998539859</v>
+        <v>67.80552666666667</v>
       </c>
       <c r="N21">
-        <v>10.8872998539859</v>
+        <v>203.41658</v>
       </c>
       <c r="O21">
-        <v>0.08435973271219399</v>
+        <v>0.4706826772118143</v>
       </c>
       <c r="P21">
-        <v>0.08435973271219399</v>
+        <v>0.4706826772118142</v>
       </c>
       <c r="Q21">
-        <v>36.2127453766461</v>
+        <v>387.2042736963199</v>
       </c>
       <c r="R21">
-        <v>36.2127453766461</v>
+        <v>3484.838463266879</v>
       </c>
       <c r="S21">
-        <v>0.001520749564740004</v>
+        <v>0.01071607827583959</v>
       </c>
       <c r="T21">
-        <v>0.001520749564740004</v>
+        <v>0.01071607827583959</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>133.059811910809</v>
+        <v>5.710511999999999</v>
       </c>
       <c r="H22">
-        <v>133.059811910809</v>
+        <v>17.131536</v>
       </c>
       <c r="I22">
-        <v>0.7211542117675545</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="J22">
-        <v>0.7211542117675545</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>50.3440946257414</v>
+        <v>0.06932833333333334</v>
       </c>
       <c r="N22">
-        <v>50.3440946257414</v>
+        <v>0.207985</v>
       </c>
       <c r="O22">
-        <v>0.3900888579559138</v>
+        <v>0.0004812534780591592</v>
       </c>
       <c r="P22">
-        <v>0.3900888579559138</v>
+        <v>0.0004812534780591591</v>
       </c>
       <c r="Q22">
-        <v>6698.775761721121</v>
+        <v>0.3959002794399999</v>
       </c>
       <c r="R22">
-        <v>6698.775761721121</v>
+        <v>3.563102514959999</v>
       </c>
       <c r="S22">
-        <v>0.2813142228785026</v>
+        <v>1.095674472651392E-05</v>
       </c>
       <c r="T22">
-        <v>0.2813142228785026</v>
+        <v>1.095674472651392E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>133.059811910809</v>
+        <v>5.710511999999999</v>
       </c>
       <c r="H23">
-        <v>133.059811910809</v>
+        <v>17.131536</v>
       </c>
       <c r="I23">
-        <v>0.7211542117675545</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="J23">
-        <v>0.7211542117675545</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>67.653043593498</v>
+        <v>0.06711766666666667</v>
       </c>
       <c r="N23">
-        <v>67.653043593498</v>
+        <v>0.201353</v>
       </c>
       <c r="O23">
-        <v>0.524206437891436</v>
+        <v>0.0004659077893484909</v>
       </c>
       <c r="P23">
-        <v>0.524206437891436</v>
+        <v>0.0004659077893484909</v>
       </c>
       <c r="Q23">
-        <v>9001.901255744606</v>
+        <v>0.383276240912</v>
       </c>
       <c r="R23">
-        <v>9001.901255744606</v>
+        <v>3.449486168207999</v>
       </c>
       <c r="S23">
-        <v>0.378033680521076</v>
+        <v>1.060736793960025E-05</v>
       </c>
       <c r="T23">
-        <v>0.378033680521076</v>
+        <v>1.060736793960025E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>133.059811910809</v>
+        <v>5.710511999999999</v>
       </c>
       <c r="H24">
-        <v>133.059811910809</v>
+        <v>17.131536</v>
       </c>
       <c r="I24">
-        <v>0.7211542117675545</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="J24">
-        <v>0.7211542117675545</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.173579347592917</v>
+        <v>0.331405</v>
       </c>
       <c r="N24">
-        <v>0.173579347592917</v>
+        <v>0.9942150000000001</v>
       </c>
       <c r="O24">
-        <v>0.001344971440456338</v>
+        <v>0.002300499683576157</v>
       </c>
       <c r="P24">
-        <v>0.001344971440456338</v>
+        <v>0.002300499683576157</v>
       </c>
       <c r="Q24">
-        <v>23.09643534231447</v>
+        <v>1.89249222936</v>
       </c>
       <c r="R24">
-        <v>23.09643534231447</v>
+        <v>17.03243006424</v>
       </c>
       <c r="S24">
-        <v>0.0009699318189921625</v>
+        <v>5.23756999700509E-05</v>
       </c>
       <c r="T24">
-        <v>0.0009699318189921625</v>
+        <v>5.23756999700509E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>133.059811910809</v>
+        <v>5.710511999999999</v>
       </c>
       <c r="H25">
-        <v>133.059811910809</v>
+        <v>17.131536</v>
       </c>
       <c r="I25">
-        <v>0.7211542117675545</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="J25">
-        <v>0.7211542117675545</v>
+        <v>0.02276709722847351</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.8872998539859</v>
+        <v>11.909819</v>
       </c>
       <c r="N25">
-        <v>10.8872998539859</v>
+        <v>35.729457</v>
       </c>
       <c r="O25">
-        <v>0.08435973271219399</v>
+        <v>0.08267387287744389</v>
       </c>
       <c r="P25">
-        <v>0.08435973271219399</v>
+        <v>0.08267387287744389</v>
       </c>
       <c r="Q25">
-        <v>1448.662070787942</v>
+        <v>68.01116431732798</v>
       </c>
       <c r="R25">
-        <v>1448.662070787942</v>
+        <v>612.1004788559518</v>
       </c>
       <c r="S25">
-        <v>0.06083637654898384</v>
+        <v>0.001882244102055224</v>
       </c>
       <c r="T25">
-        <v>0.06083637654898384</v>
+        <v>0.001882244102055224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.355851333333334</v>
+      </c>
+      <c r="H26">
+        <v>10.067554</v>
+      </c>
+      <c r="I26">
+        <v>0.01337935960738765</v>
+      </c>
+      <c r="J26">
+        <v>0.01337935960738765</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>63.87463666666667</v>
+      </c>
+      <c r="N26">
+        <v>191.62391</v>
+      </c>
+      <c r="O26">
+        <v>0.4433957889597581</v>
+      </c>
+      <c r="P26">
+        <v>0.4433957889597581</v>
+      </c>
+      <c r="Q26">
+        <v>214.3537846240156</v>
+      </c>
+      <c r="R26">
+        <v>1929.18406161614</v>
+      </c>
+      <c r="S26">
+        <v>0.005932351708893968</v>
+      </c>
+      <c r="T26">
+        <v>0.005932351708893967</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.355851333333334</v>
+      </c>
+      <c r="H27">
+        <v>10.067554</v>
+      </c>
+      <c r="I27">
+        <v>0.01337935960738765</v>
+      </c>
+      <c r="J27">
+        <v>0.01337935960738765</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>67.80552666666667</v>
+      </c>
+      <c r="N27">
+        <v>203.41658</v>
+      </c>
+      <c r="O27">
+        <v>0.4706826772118143</v>
+      </c>
+      <c r="P27">
+        <v>0.4706826772118142</v>
+      </c>
+      <c r="Q27">
+        <v>227.5452670717023</v>
+      </c>
+      <c r="R27">
+        <v>2047.90740364532</v>
+      </c>
+      <c r="S27">
+        <v>0.00629743279938483</v>
+      </c>
+      <c r="T27">
+        <v>0.006297432799384828</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.355851333333334</v>
+      </c>
+      <c r="H28">
+        <v>10.067554</v>
+      </c>
+      <c r="I28">
+        <v>0.01337935960738765</v>
+      </c>
+      <c r="J28">
+        <v>0.01337935960738765</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.06932833333333334</v>
+      </c>
+      <c r="N28">
+        <v>0.207985</v>
+      </c>
+      <c r="O28">
+        <v>0.0004812534780591592</v>
+      </c>
+      <c r="P28">
+        <v>0.0004812534780591591</v>
+      </c>
+      <c r="Q28">
+        <v>0.2326555798544445</v>
+      </c>
+      <c r="R28">
+        <v>2.09390021869</v>
+      </c>
+      <c r="S28">
+        <v>6.438863345259536E-06</v>
+      </c>
+      <c r="T28">
+        <v>6.438863345259533E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.355851333333334</v>
+      </c>
+      <c r="H29">
+        <v>10.067554</v>
+      </c>
+      <c r="I29">
+        <v>0.01337935960738765</v>
+      </c>
+      <c r="J29">
+        <v>0.01337935960738765</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.06711766666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.201353</v>
+      </c>
+      <c r="O29">
+        <v>0.0004659077893484909</v>
+      </c>
+      <c r="P29">
+        <v>0.0004659077893484909</v>
+      </c>
+      <c r="Q29">
+        <v>0.2252369111735556</v>
+      </c>
+      <c r="R29">
+        <v>2.027132200562</v>
+      </c>
+      <c r="S29">
+        <v>6.233547857576475E-06</v>
+      </c>
+      <c r="T29">
+        <v>6.233547857576474E-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.355851333333334</v>
+      </c>
+      <c r="H30">
+        <v>10.067554</v>
+      </c>
+      <c r="I30">
+        <v>0.01337935960738765</v>
+      </c>
+      <c r="J30">
+        <v>0.01337935960738765</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.331405</v>
+      </c>
+      <c r="N30">
+        <v>0.9942150000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.002300499683576157</v>
+      </c>
+      <c r="P30">
+        <v>0.002300499683576157</v>
+      </c>
+      <c r="Q30">
+        <v>1.112145911123333</v>
+      </c>
+      <c r="R30">
+        <v>10.00931320011</v>
+      </c>
+      <c r="S30">
+        <v>3.077921254324691E-05</v>
+      </c>
+      <c r="T30">
+        <v>3.077921254324691E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.355851333333334</v>
+      </c>
+      <c r="H31">
+        <v>10.067554</v>
+      </c>
+      <c r="I31">
+        <v>0.01337935960738765</v>
+      </c>
+      <c r="J31">
+        <v>0.01337935960738765</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>11.909819</v>
+      </c>
+      <c r="N31">
+        <v>35.729457</v>
+      </c>
+      <c r="O31">
+        <v>0.08267387287744389</v>
+      </c>
+      <c r="P31">
+        <v>0.08267387287744389</v>
+      </c>
+      <c r="Q31">
+        <v>39.96758197090867</v>
+      </c>
+      <c r="R31">
+        <v>359.708237738178</v>
+      </c>
+      <c r="S31">
+        <v>0.001106123475362775</v>
+      </c>
+      <c r="T31">
+        <v>0.001106123475362774</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>196.6334516666667</v>
+      </c>
+      <c r="H32">
+        <v>589.900355</v>
+      </c>
+      <c r="I32">
+        <v>0.783952982230901</v>
+      </c>
+      <c r="J32">
+        <v>0.7839529822309009</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>63.87463666666667</v>
+      </c>
+      <c r="N32">
+        <v>191.62391</v>
+      </c>
+      <c r="O32">
+        <v>0.4433957889597581</v>
+      </c>
+      <c r="P32">
+        <v>0.4433957889597581</v>
+      </c>
+      <c r="Q32">
+        <v>12559.89028172089</v>
+      </c>
+      <c r="R32">
+        <v>113039.012535488</v>
+      </c>
+      <c r="S32">
+        <v>0.3476014510636256</v>
+      </c>
+      <c r="T32">
+        <v>0.3476014510636255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>196.6334516666667</v>
+      </c>
+      <c r="H33">
+        <v>589.900355</v>
+      </c>
+      <c r="I33">
+        <v>0.783952982230901</v>
+      </c>
+      <c r="J33">
+        <v>0.7839529822309009</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>67.80552666666667</v>
+      </c>
+      <c r="N33">
+        <v>203.41658</v>
+      </c>
+      <c r="O33">
+        <v>0.4706826772118143</v>
+      </c>
+      <c r="P33">
+        <v>0.4706826772118142</v>
+      </c>
+      <c r="Q33">
+        <v>13332.83475054288</v>
+      </c>
+      <c r="R33">
+        <v>119995.5127548859</v>
+      </c>
+      <c r="S33">
+        <v>0.3689930884846264</v>
+      </c>
+      <c r="T33">
+        <v>0.3689930884846263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>196.6334516666667</v>
+      </c>
+      <c r="H34">
+        <v>589.900355</v>
+      </c>
+      <c r="I34">
+        <v>0.783952982230901</v>
+      </c>
+      <c r="J34">
+        <v>0.7839529822309009</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.06932833333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.207985</v>
+      </c>
+      <c r="O34">
+        <v>0.0004812534780591592</v>
+      </c>
+      <c r="P34">
+        <v>0.0004812534780591591</v>
+      </c>
+      <c r="Q34">
+        <v>13.63226948163056</v>
+      </c>
+      <c r="R34">
+        <v>122.690425334675</v>
+      </c>
+      <c r="S34">
+        <v>0.0003772800993334714</v>
+      </c>
+      <c r="T34">
+        <v>0.0003772800993334712</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>196.6334516666667</v>
+      </c>
+      <c r="H35">
+        <v>589.900355</v>
+      </c>
+      <c r="I35">
+        <v>0.783952982230901</v>
+      </c>
+      <c r="J35">
+        <v>0.7839529822309009</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.06711766666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.201353</v>
+      </c>
+      <c r="O35">
+        <v>0.0004659077893484909</v>
+      </c>
+      <c r="P35">
+        <v>0.0004659077893484909</v>
+      </c>
+      <c r="Q35">
+        <v>13.19757846447945</v>
+      </c>
+      <c r="R35">
+        <v>118.778206180315</v>
+      </c>
+      <c r="S35">
+        <v>0.0003652498009043559</v>
+      </c>
+      <c r="T35">
+        <v>0.0003652498009043558</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>196.6334516666667</v>
+      </c>
+      <c r="H36">
+        <v>589.900355</v>
+      </c>
+      <c r="I36">
+        <v>0.783952982230901</v>
+      </c>
+      <c r="J36">
+        <v>0.7839529822309009</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.331405</v>
+      </c>
+      <c r="N36">
+        <v>0.9942150000000001</v>
+      </c>
+      <c r="O36">
+        <v>0.002300499683576157</v>
+      </c>
+      <c r="P36">
+        <v>0.002300499683576157</v>
+      </c>
+      <c r="Q36">
+        <v>65.16530904959167</v>
+      </c>
+      <c r="R36">
+        <v>586.487781446325</v>
+      </c>
+      <c r="S36">
+        <v>0.001803483587560772</v>
+      </c>
+      <c r="T36">
+        <v>0.001803483587560772</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>196.6334516666667</v>
+      </c>
+      <c r="H37">
+        <v>589.900355</v>
+      </c>
+      <c r="I37">
+        <v>0.783952982230901</v>
+      </c>
+      <c r="J37">
+        <v>0.7839529822309009</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>11.909819</v>
+      </c>
+      <c r="N37">
+        <v>35.729457</v>
+      </c>
+      <c r="O37">
+        <v>0.08267387287744389</v>
+      </c>
+      <c r="P37">
+        <v>0.08267387287744389</v>
+      </c>
+      <c r="Q37">
+        <v>2341.868818695248</v>
+      </c>
+      <c r="R37">
+        <v>21076.81936825723</v>
+      </c>
+      <c r="S37">
+        <v>0.06481242919485054</v>
+      </c>
+      <c r="T37">
+        <v>0.06481242919485053</v>
       </c>
     </row>
   </sheetData>
